--- a/public/assets/file/doctors_info_template.xlsx
+++ b/public/assets/file/doctors_info_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z.dalvand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F18E7-A3F8-4A9D-B76F-C36484E2B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF1987-CD38-4BCA-BA57-CA57E537B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>نام</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">کدملی </t>
+  </si>
+  <si>
+    <t>لینک تصویر</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -398,24 +401,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,6 +457,9 @@
       </c>
       <c r="M1" t="s">
         <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/file/doctors_info_template.xlsx
+++ b/public/assets/file/doctors_info_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z.dalvand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.karimi\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF1987-CD38-4BCA-BA57-CA57E537B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8039116-53BC-4762-A0FB-1AAF2DEC1253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +76,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,15 +106,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,61 +438,65 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
